--- a/data/pca/factorExposure/factorExposure_2017-02-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01801671720831531</v>
+        <v>0.01114731340760858</v>
       </c>
       <c r="C2">
-        <v>0.01763038424283055</v>
+        <v>-0.04023790865216378</v>
       </c>
       <c r="D2">
-        <v>0.03418524330962545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03147843672093213</v>
+      </c>
+      <c r="E2">
+        <v>0.05094419566712211</v>
+      </c>
+      <c r="F2">
+        <v>0.004136671225324149</v>
+      </c>
+      <c r="G2">
+        <v>-0.1141636178773075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04454496468094926</v>
+        <v>0.03894275850356303</v>
       </c>
       <c r="C3">
-        <v>-0.01133953718004561</v>
+        <v>-0.09985038229009556</v>
       </c>
       <c r="D3">
-        <v>0.1117943992613201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01819882986343619</v>
+      </c>
+      <c r="E3">
+        <v>0.09857373015599424</v>
+      </c>
+      <c r="F3">
+        <v>0.01835590649548059</v>
+      </c>
+      <c r="G3">
+        <v>-0.1321810139170722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0383399626065723</v>
+        <v>0.05515020023110659</v>
       </c>
       <c r="C4">
-        <v>0.005733509627376784</v>
+        <v>-0.06660436629118562</v>
       </c>
       <c r="D4">
-        <v>0.07161775986422023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02555222889277795</v>
+      </c>
+      <c r="E4">
+        <v>0.04095352222493532</v>
+      </c>
+      <c r="F4">
+        <v>0.002047524859084719</v>
+      </c>
+      <c r="G4">
+        <v>-0.1032661384930479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01067221737772856</v>
+        <v>0.03466897990432105</v>
       </c>
       <c r="C6">
-        <v>0.009713821984897866</v>
+        <v>-0.0514858997782105</v>
       </c>
       <c r="D6">
-        <v>0.05626822415860994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01839616861526989</v>
+      </c>
+      <c r="E6">
+        <v>0.04684937394049055</v>
+      </c>
+      <c r="F6">
+        <v>0.002303795018148823</v>
+      </c>
+      <c r="G6">
+        <v>-0.0879827141575126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.00206206650931467</v>
+        <v>0.02073676975556354</v>
       </c>
       <c r="C7">
-        <v>0.01049606172354973</v>
+        <v>-0.03797877283212248</v>
       </c>
       <c r="D7">
-        <v>0.02929871863155125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01490101627243133</v>
+      </c>
+      <c r="E7">
+        <v>0.01850753979014061</v>
+      </c>
+      <c r="F7">
+        <v>-0.003574368477482405</v>
+      </c>
+      <c r="G7">
+        <v>-0.1267615888207124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.004260532635729459</v>
+        <v>0.003685648917809545</v>
       </c>
       <c r="C8">
-        <v>0.002531058951709521</v>
+        <v>-0.02394727561776024</v>
       </c>
       <c r="D8">
-        <v>-0.007836925534283438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004156024525094454</v>
+      </c>
+      <c r="E8">
+        <v>0.03128844597929874</v>
+      </c>
+      <c r="F8">
+        <v>0.002047316006118933</v>
+      </c>
+      <c r="G8">
+        <v>-0.06836213893305623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01318255085277391</v>
+        <v>0.03279548374605382</v>
       </c>
       <c r="C9">
-        <v>0.0078963774129297</v>
+        <v>-0.04827428529124415</v>
       </c>
       <c r="D9">
-        <v>0.04329936339402313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01684884434567832</v>
+      </c>
+      <c r="E9">
+        <v>0.02735090987279324</v>
+      </c>
+      <c r="F9">
+        <v>-0.000423580797607356</v>
+      </c>
+      <c r="G9">
+        <v>-0.1052641012759484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1312881379913165</v>
+        <v>0.09914792850763471</v>
       </c>
       <c r="C10">
-        <v>-0.05010179830197421</v>
+        <v>0.1831490826452943</v>
       </c>
       <c r="D10">
-        <v>-0.1626046817851417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01562938297624655</v>
+      </c>
+      <c r="E10">
+        <v>0.02018859853489144</v>
+      </c>
+      <c r="F10">
+        <v>0.02335678227226196</v>
+      </c>
+      <c r="G10">
+        <v>-0.05406687138029849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.009941842121667269</v>
+        <v>0.03527033911871991</v>
       </c>
       <c r="C11">
-        <v>-0.004635821147274202</v>
+        <v>-0.05164297011975656</v>
       </c>
       <c r="D11">
-        <v>0.04447266986610247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002839352812913678</v>
+      </c>
+      <c r="E11">
+        <v>0.02173564300458566</v>
+      </c>
+      <c r="F11">
+        <v>-0.01553468769913231</v>
+      </c>
+      <c r="G11">
+        <v>-0.08727019497639942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.01295376125298263</v>
+        <v>0.03744814746962064</v>
       </c>
       <c r="C12">
-        <v>-0.0002905671572190673</v>
+        <v>-0.04645323624234281</v>
       </c>
       <c r="D12">
-        <v>0.04038566578807137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006910667180431356</v>
+      </c>
+      <c r="E12">
+        <v>0.01148862998598341</v>
+      </c>
+      <c r="F12">
+        <v>-0.002584096263104268</v>
+      </c>
+      <c r="G12">
+        <v>-0.08287300778000888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01230290973538283</v>
+        <v>0.0127511971772483</v>
       </c>
       <c r="C13">
-        <v>0.01738688664035882</v>
+        <v>-0.03993586336458874</v>
       </c>
       <c r="D13">
-        <v>0.02648046080190822</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0282578816107358</v>
+      </c>
+      <c r="E13">
+        <v>0.05141484943100525</v>
+      </c>
+      <c r="F13">
+        <v>0.01183508812842689</v>
+      </c>
+      <c r="G13">
+        <v>-0.144350964002607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.001167371570108835</v>
+        <v>0.01006298491593</v>
       </c>
       <c r="C14">
-        <v>0.006777177301771197</v>
+        <v>-0.02719117057879133</v>
       </c>
       <c r="D14">
-        <v>0.01922638193975864</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01075570334069918</v>
+      </c>
+      <c r="E14">
+        <v>0.01303260994787792</v>
+      </c>
+      <c r="F14">
+        <v>0.006245440537475326</v>
+      </c>
+      <c r="G14">
+        <v>-0.1138738296325888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.01059931684974047</v>
+        <v>0.03386607733524052</v>
       </c>
       <c r="C16">
-        <v>-0.004500509238137726</v>
+        <v>-0.0449066400343412</v>
       </c>
       <c r="D16">
-        <v>0.03433457673723702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002343374648359743</v>
+      </c>
+      <c r="E16">
+        <v>0.01792799995168998</v>
+      </c>
+      <c r="F16">
+        <v>0.004288640336398759</v>
+      </c>
+      <c r="G16">
+        <v>-0.09095142326779809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.0119551781960509</v>
+        <v>0.02085165190895523</v>
       </c>
       <c r="C19">
-        <v>0.007636797169968374</v>
+        <v>-0.04735313289041516</v>
       </c>
       <c r="D19">
-        <v>0.04400153689053288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02070350790075459</v>
+      </c>
+      <c r="E19">
+        <v>0.08853546111779628</v>
+      </c>
+      <c r="F19">
+        <v>0.00355652370945452</v>
+      </c>
+      <c r="G19">
+        <v>-0.1443309300622852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.001848712008156806</v>
+        <v>0.01479335216299077</v>
       </c>
       <c r="C20">
-        <v>0.009763083780969045</v>
+        <v>-0.04105144272579851</v>
       </c>
       <c r="D20">
-        <v>0.02655158047794183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01532843428031916</v>
+      </c>
+      <c r="E20">
+        <v>0.042202007270111</v>
+      </c>
+      <c r="F20">
+        <v>0.02354201697198512</v>
+      </c>
+      <c r="G20">
+        <v>-0.1156208141888684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0003588104110400743</v>
+        <v>0.009760839283814028</v>
       </c>
       <c r="C21">
-        <v>0.01393391175021883</v>
+        <v>-0.03718151859477358</v>
       </c>
       <c r="D21">
-        <v>0.01386163643404525</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02015740767547512</v>
+      </c>
+      <c r="E21">
+        <v>0.05119538966189819</v>
+      </c>
+      <c r="F21">
+        <v>0.01189995966427202</v>
+      </c>
+      <c r="G21">
+        <v>-0.143662111025352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001204651708756325</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006924651617298336</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002362410037435839</v>
+      </c>
+      <c r="E22">
+        <v>0.01812872530506854</v>
+      </c>
+      <c r="F22">
+        <v>-0.005818011600347387</v>
+      </c>
+      <c r="G22">
+        <v>-0.005068049649033892</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001214291656975662</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006891776642360867</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002358181474137833</v>
+      </c>
+      <c r="E23">
+        <v>0.01814288534904183</v>
+      </c>
+      <c r="F23">
+        <v>-0.005608664835686356</v>
+      </c>
+      <c r="G23">
+        <v>-0.004909070602791866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.003895571691594394</v>
+        <v>0.02917351307168391</v>
       </c>
       <c r="C24">
-        <v>0.002776325714326504</v>
+        <v>-0.04832097318655837</v>
       </c>
       <c r="D24">
-        <v>0.03808316386429708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007528427929816572</v>
+      </c>
+      <c r="E24">
+        <v>0.01701677757072632</v>
+      </c>
+      <c r="F24">
+        <v>-0.007027847854647645</v>
+      </c>
+      <c r="G24">
+        <v>-0.09064261897623999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.02009860195196874</v>
+        <v>0.04230441644222058</v>
       </c>
       <c r="C25">
-        <v>0.001690425512876112</v>
+        <v>-0.05609921360443587</v>
       </c>
       <c r="D25">
-        <v>0.05109816905052589</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01163530393636221</v>
+      </c>
+      <c r="E25">
+        <v>0.008267604778154867</v>
+      </c>
+      <c r="F25">
+        <v>-0.004993377220515072</v>
+      </c>
+      <c r="G25">
+        <v>-0.09780245766393367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.00573376432613137</v>
+        <v>0.0146079821591777</v>
       </c>
       <c r="C26">
-        <v>0.02161515844448099</v>
+        <v>-0.011269690340296</v>
       </c>
       <c r="D26">
-        <v>0.0003773689481235049</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02423299782303923</v>
+      </c>
+      <c r="E26">
+        <v>0.008575922046290398</v>
+      </c>
+      <c r="F26">
+        <v>0.006490412696944023</v>
+      </c>
+      <c r="G26">
+        <v>-0.08475013686987103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1734520056739902</v>
+        <v>0.1290128688414478</v>
       </c>
       <c r="C28">
-        <v>-0.05126041262449182</v>
+        <v>0.2424904633839815</v>
       </c>
       <c r="D28">
-        <v>-0.1948031106362892</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.007181003769352616</v>
+      </c>
+      <c r="E28">
+        <v>0.002097624276192563</v>
+      </c>
+      <c r="F28">
+        <v>0.02148695026875882</v>
+      </c>
+      <c r="G28">
+        <v>-0.04863048793341857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007752330889745763</v>
+        <v>0.009478358201234494</v>
       </c>
       <c r="C29">
-        <v>0.003812535073291674</v>
+        <v>-0.02296045894453196</v>
       </c>
       <c r="D29">
-        <v>0.0158634861452275</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009610414699593887</v>
+      </c>
+      <c r="E29">
+        <v>0.00571898151532335</v>
+      </c>
+      <c r="F29">
+        <v>0.01187686496920517</v>
+      </c>
+      <c r="G29">
+        <v>-0.1032039261023895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02298555048604207</v>
+        <v>0.03960001211084344</v>
       </c>
       <c r="C30">
-        <v>0.01336986326937298</v>
+        <v>-0.06637450410773646</v>
       </c>
       <c r="D30">
-        <v>0.09004646605711267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.03029148980801629</v>
+      </c>
+      <c r="E30">
+        <v>0.07019298899139395</v>
+      </c>
+      <c r="F30">
+        <v>-0.02330336246179118</v>
+      </c>
+      <c r="G30">
+        <v>-0.1296921321200984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02554575724830951</v>
+        <v>0.05351225091522375</v>
       </c>
       <c r="C31">
-        <v>-0.005648404558120779</v>
+        <v>-0.04012427994962848</v>
       </c>
       <c r="D31">
-        <v>0.02034632432221382</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003960268784989309</v>
+      </c>
+      <c r="E31">
+        <v>-0.002930519290512711</v>
+      </c>
+      <c r="F31">
+        <v>0.03640723191796096</v>
+      </c>
+      <c r="G31">
+        <v>-0.09784773014496993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.01029508755762672</v>
+        <v>0.002073696977812499</v>
       </c>
       <c r="C32">
-        <v>-0.01263788025297096</v>
+        <v>-0.02226646921764206</v>
       </c>
       <c r="D32">
-        <v>0.0219303220293304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.001796600595976455</v>
+      </c>
+      <c r="E32">
+        <v>0.04614806403023184</v>
+      </c>
+      <c r="F32">
+        <v>-0.03175139378939078</v>
+      </c>
+      <c r="G32">
+        <v>-0.08204032742955629</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01029734978734545</v>
+        <v>0.02740813716371905</v>
       </c>
       <c r="C33">
-        <v>0.006649126587599669</v>
+        <v>-0.04931484431914631</v>
       </c>
       <c r="D33">
-        <v>0.04295098019204063</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01733755301574559</v>
+      </c>
+      <c r="E33">
+        <v>0.05571114327627389</v>
+      </c>
+      <c r="F33">
+        <v>-0.006339022165119532</v>
+      </c>
+      <c r="G33">
+        <v>-0.1624348801491551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.0247077145547162</v>
+        <v>0.04103207832122428</v>
       </c>
       <c r="C34">
-        <v>-0.01742976545381487</v>
+        <v>-0.05881174782726569</v>
       </c>
       <c r="D34">
-        <v>0.04911061076095413</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004033566730940429</v>
+      </c>
+      <c r="E34">
+        <v>0.01391014889774767</v>
+      </c>
+      <c r="F34">
+        <v>-0.018208132019955</v>
+      </c>
+      <c r="G34">
+        <v>-0.09109249569767078</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.005989675990517916</v>
+        <v>0.01603085512772105</v>
       </c>
       <c r="C36">
-        <v>0.009271953116859456</v>
+        <v>-0.009886186273326821</v>
       </c>
       <c r="D36">
-        <v>-0.003694273153553226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01299960998559079</v>
+      </c>
+      <c r="E36">
+        <v>0.01065335350176872</v>
+      </c>
+      <c r="F36">
+        <v>0.008966784612465997</v>
+      </c>
+      <c r="G36">
+        <v>-0.09384683436906963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02242992493835572</v>
+        <v>0.03251538834560164</v>
       </c>
       <c r="C38">
-        <v>-0.01751601846043813</v>
+        <v>-0.02820964233422533</v>
       </c>
       <c r="D38">
-        <v>0.01885819591252692</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007508016186076134</v>
+      </c>
+      <c r="E38">
+        <v>0.007047149130813065</v>
+      </c>
+      <c r="F38">
+        <v>0.01748630590447263</v>
+      </c>
+      <c r="G38">
+        <v>-0.08801463402649085</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.001679191917525802</v>
+        <v>0.03660226478691616</v>
       </c>
       <c r="C39">
-        <v>0.006732568229941112</v>
+        <v>-0.07899296820776507</v>
       </c>
       <c r="D39">
-        <v>0.0867054535632218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01255115207290791</v>
+      </c>
+      <c r="E39">
+        <v>0.03201267975244215</v>
+      </c>
+      <c r="F39">
+        <v>-0.01713344976547359</v>
+      </c>
+      <c r="G39">
+        <v>-0.09495541261522644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01766567680265239</v>
+        <v>0.0138839711104452</v>
       </c>
       <c r="C40">
-        <v>0.003234606703936441</v>
+        <v>-0.03734770533613425</v>
       </c>
       <c r="D40">
-        <v>0.02742921988475909</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01543649209086862</v>
+      </c>
+      <c r="E40">
+        <v>0.03510790446836157</v>
+      </c>
+      <c r="F40">
+        <v>0.01512882401043042</v>
+      </c>
+      <c r="G40">
+        <v>-0.1258526251369444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0125220824318824</v>
+        <v>0.02048024527493632</v>
       </c>
       <c r="C41">
-        <v>-0.0007259425116168599</v>
+        <v>-0.003412918551946077</v>
       </c>
       <c r="D41">
-        <v>-0.006070639100226115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0050441620685836</v>
+      </c>
+      <c r="E41">
+        <v>0.01034159053297328</v>
+      </c>
+      <c r="F41">
+        <v>0.01546140805322781</v>
+      </c>
+      <c r="G41">
+        <v>-0.09004146058567089</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.02080566150645073</v>
+        <v>0.005410292408965344</v>
       </c>
       <c r="C42">
-        <v>0.0855372702751315</v>
+        <v>-0.02392660194435502</v>
       </c>
       <c r="D42">
-        <v>0.05746532359794592</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0856964115746441</v>
+      </c>
+      <c r="E42">
+        <v>-0.002512985991475847</v>
+      </c>
+      <c r="F42">
+        <v>0.03755805801363999</v>
+      </c>
+      <c r="G42">
+        <v>0.02769774630895439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.016165519443541</v>
+        <v>0.03560791189085945</v>
       </c>
       <c r="C43">
-        <v>-0.00157802689120825</v>
+        <v>-0.01826440755842123</v>
       </c>
       <c r="D43">
-        <v>-0.002411105956007704</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006348610753785903</v>
+      </c>
+      <c r="E43">
+        <v>0.02548113743417001</v>
+      </c>
+      <c r="F43">
+        <v>0.01176740827021611</v>
+      </c>
+      <c r="G43">
+        <v>-0.1195146188701587</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003351433881360648</v>
+        <v>0.0130915508419355</v>
       </c>
       <c r="C44">
-        <v>5.877961819642919e-05</v>
+        <v>-0.05656065653664451</v>
       </c>
       <c r="D44">
-        <v>0.0479968462587731</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007725937994953354</v>
+      </c>
+      <c r="E44">
+        <v>0.03229145047838589</v>
+      </c>
+      <c r="F44">
+        <v>0.01536702394045338</v>
+      </c>
+      <c r="G44">
+        <v>-0.1144134272717599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.001390507500927139</v>
+        <v>0.008856161367994003</v>
       </c>
       <c r="C46">
-        <v>0.01032986648368328</v>
+        <v>-0.01555972665556399</v>
       </c>
       <c r="D46">
-        <v>-0.002309183254106626</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01280705313566821</v>
+      </c>
+      <c r="E46">
+        <v>9.280740432661933e-05</v>
+      </c>
+      <c r="F46">
+        <v>0.01543478616506719</v>
+      </c>
+      <c r="G46">
+        <v>-0.1088141689422437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.04098784916445913</v>
+        <v>0.07933024573447256</v>
       </c>
       <c r="C47">
-        <v>-0.02023515513184728</v>
+        <v>-0.07158716364346376</v>
       </c>
       <c r="D47">
-        <v>0.06404959205996608</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004887163824552317</v>
+      </c>
+      <c r="E47">
+        <v>-0.01020587272726544</v>
+      </c>
+      <c r="F47">
+        <v>0.04956450795954176</v>
+      </c>
+      <c r="G47">
+        <v>-0.08635900154463502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004431406643526698</v>
+        <v>0.01962116976668137</v>
       </c>
       <c r="C48">
-        <v>-0.0005330750810259208</v>
+        <v>-0.01287368331576657</v>
       </c>
       <c r="D48">
-        <v>0.0006713481338084197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002524486019993543</v>
+      </c>
+      <c r="E48">
+        <v>0.005356999804582562</v>
+      </c>
+      <c r="F48">
+        <v>0.0211677899771261</v>
+      </c>
+      <c r="G48">
+        <v>-0.1030605956459275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.04464625019930529</v>
+        <v>0.07445978836506685</v>
       </c>
       <c r="C50">
-        <v>-0.01965273116028953</v>
+        <v>-0.07368963369019586</v>
       </c>
       <c r="D50">
-        <v>0.05130919865766033</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002057915960114943</v>
+      </c>
+      <c r="E50">
+        <v>-0.0113706424036401</v>
+      </c>
+      <c r="F50">
+        <v>0.05155062991418026</v>
+      </c>
+      <c r="G50">
+        <v>-0.0973339378316784</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.00454710541345068</v>
+        <v>0.01236766866137483</v>
       </c>
       <c r="C51">
-        <v>0.00420703679319902</v>
+        <v>-0.03682192458728357</v>
       </c>
       <c r="D51">
-        <v>0.02396099603729357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01153461535080323</v>
+      </c>
+      <c r="E51">
+        <v>0.0337482239693243</v>
+      </c>
+      <c r="F51">
+        <v>-0.01198721399347885</v>
+      </c>
+      <c r="G51">
+        <v>-0.1222040914456962</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.06059224071531871</v>
+        <v>0.08123320707734741</v>
       </c>
       <c r="C53">
-        <v>-0.02699320523716667</v>
+        <v>-0.08373802171420534</v>
       </c>
       <c r="D53">
-        <v>0.0893446522808032</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003631943643858254</v>
+      </c>
+      <c r="E53">
+        <v>-0.03136877863362426</v>
+      </c>
+      <c r="F53">
+        <v>0.05445983512974525</v>
+      </c>
+      <c r="G53">
+        <v>-0.09008795550192283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01471230473510089</v>
+        <v>0.0326111729444043</v>
       </c>
       <c r="C54">
-        <v>-0.008427101083780997</v>
+        <v>-0.01850020231993495</v>
       </c>
       <c r="D54">
-        <v>-0.002864283390620485</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0008637222267560428</v>
+      </c>
+      <c r="E54">
+        <v>0.019125475402549</v>
+      </c>
+      <c r="F54">
+        <v>0.009284823695633083</v>
+      </c>
+      <c r="G54">
+        <v>-0.1103113947445571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.03973777851544522</v>
+        <v>0.07374044302561437</v>
       </c>
       <c r="C55">
-        <v>-0.01965613654787739</v>
+        <v>-0.0677003689337498</v>
       </c>
       <c r="D55">
-        <v>0.06903724091927917</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005288569886316685</v>
+      </c>
+      <c r="E55">
+        <v>-0.03020922122126526</v>
+      </c>
+      <c r="F55">
+        <v>0.05249841719379886</v>
+      </c>
+      <c r="G55">
+        <v>-0.06729224391707221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.09249416917111335</v>
+        <v>0.1360118512408932</v>
       </c>
       <c r="C56">
-        <v>-0.04624946612823147</v>
+        <v>-0.1063208634618577</v>
       </c>
       <c r="D56">
-        <v>0.1249917065532136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01294436741976181</v>
+      </c>
+      <c r="E56">
+        <v>-0.03879704492821186</v>
+      </c>
+      <c r="F56">
+        <v>0.06658116366525853</v>
+      </c>
+      <c r="G56">
+        <v>-0.04414174564556501</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01344545125045666</v>
+        <v>0.0038974193067839</v>
       </c>
       <c r="C57">
-        <v>0.01761807555317826</v>
+        <v>-0.005209913905092097</v>
       </c>
       <c r="D57">
-        <v>0.01582530594573868</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02272250489248913</v>
+      </c>
+      <c r="E57">
+        <v>0.02409639647023228</v>
+      </c>
+      <c r="F57">
+        <v>-0.0008525984598440144</v>
+      </c>
+      <c r="G57">
+        <v>-0.01867017122253855</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01429034768027235</v>
+        <v>0.04406015677230535</v>
       </c>
       <c r="C58">
-        <v>-0.008662796586194652</v>
+        <v>-0.03681217419527369</v>
       </c>
       <c r="D58">
-        <v>0.08527164691461157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02954637666292512</v>
+      </c>
+      <c r="E58">
+        <v>0.8162613799211659</v>
+      </c>
+      <c r="F58">
+        <v>0.4790522549212085</v>
+      </c>
+      <c r="G58">
+        <v>0.2504720712606096</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2085638651860342</v>
+        <v>0.1599973857889516</v>
       </c>
       <c r="C59">
-        <v>-0.07064849692125326</v>
+        <v>0.2066913099150495</v>
       </c>
       <c r="D59">
-        <v>-0.1762544191661066</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01145651413376741</v>
+      </c>
+      <c r="E59">
+        <v>0.02229757642223324</v>
+      </c>
+      <c r="F59">
+        <v>0.004168521484569513</v>
+      </c>
+      <c r="G59">
+        <v>-0.03534224753410443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2714493974749167</v>
+        <v>0.2870509536551206</v>
       </c>
       <c r="C60">
-        <v>-0.08942711714274473</v>
+        <v>-0.1149824409093334</v>
       </c>
       <c r="D60">
-        <v>0.1847986175606728</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01508145233234882</v>
+      </c>
+      <c r="E60">
+        <v>0.08637077497153028</v>
+      </c>
+      <c r="F60">
+        <v>-0.3222705239122037</v>
+      </c>
+      <c r="G60">
+        <v>0.1628001699235706</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.007927403869504602</v>
+        <v>0.03901076873295601</v>
       </c>
       <c r="C61">
-        <v>-0.002270188820402507</v>
+        <v>-0.06412584496232072</v>
       </c>
       <c r="D61">
-        <v>0.06834859087428015</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006414934904338705</v>
+      </c>
+      <c r="E61">
+        <v>0.03102004467544278</v>
+      </c>
+      <c r="F61">
+        <v>-0.01072504854995981</v>
+      </c>
+      <c r="G61">
+        <v>-0.1006968990372626</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.006166150412758558</v>
+        <v>0.01446045552678492</v>
       </c>
       <c r="C63">
-        <v>0.004703617978230682</v>
+        <v>-0.03030653279145493</v>
       </c>
       <c r="D63">
-        <v>0.02557640879368278</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.00893668858752188</v>
+      </c>
+      <c r="E63">
+        <v>0.005657728848620871</v>
+      </c>
+      <c r="F63">
+        <v>0.01504576995755874</v>
+      </c>
+      <c r="G63">
+        <v>-0.09484870181227421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.03183213070668476</v>
+        <v>0.04914749772975105</v>
       </c>
       <c r="C64">
-        <v>-0.008049250950049524</v>
+        <v>-0.04666324279827621</v>
       </c>
       <c r="D64">
-        <v>0.04235953890047426</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0064519160821829</v>
+      </c>
+      <c r="E64">
+        <v>0.005964856679419587</v>
+      </c>
+      <c r="F64">
+        <v>-0.005622198360852908</v>
+      </c>
+      <c r="G64">
+        <v>-0.09921246268253099</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.05705970629411669</v>
+        <v>0.07367896086491169</v>
       </c>
       <c r="C65">
-        <v>-0.007701166020133218</v>
+        <v>-0.06053127100100529</v>
       </c>
       <c r="D65">
-        <v>0.1028902444593855</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01770230339305108</v>
+      </c>
+      <c r="E65">
+        <v>0.04839517210339716</v>
+      </c>
+      <c r="F65">
+        <v>-0.01200176345909912</v>
+      </c>
+      <c r="G65">
+        <v>-0.04230390795097744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.008951792184982033</v>
+        <v>0.048323799229589</v>
       </c>
       <c r="C66">
-        <v>0.000730639657381931</v>
+        <v>-0.1064528773741991</v>
       </c>
       <c r="D66">
-        <v>0.1295099521219004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01323185545954843</v>
+      </c>
+      <c r="E66">
+        <v>0.05219116202035668</v>
+      </c>
+      <c r="F66">
+        <v>-0.02536480810164465</v>
+      </c>
+      <c r="G66">
+        <v>-0.1043103250487021</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04772664367379698</v>
+        <v>0.05579617847338959</v>
       </c>
       <c r="C67">
-        <v>-0.02395728152286023</v>
+        <v>-0.03347034371352615</v>
       </c>
       <c r="D67">
-        <v>0.03377102055835204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006146401899875824</v>
+      </c>
+      <c r="E67">
+        <v>-0.003895850708282486</v>
+      </c>
+      <c r="F67">
+        <v>0.0134135253608648</v>
+      </c>
+      <c r="G67">
+        <v>-0.07455946668752664</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.203413651865141</v>
+        <v>0.1595023569935793</v>
       </c>
       <c r="C68">
-        <v>-0.04607594294456881</v>
+        <v>0.2713329031414142</v>
       </c>
       <c r="D68">
-        <v>-0.2300461246045823</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.003922966442916019</v>
+      </c>
+      <c r="E68">
+        <v>-0.002330239337913047</v>
+      </c>
+      <c r="F68">
+        <v>0.04305435242191986</v>
+      </c>
+      <c r="G68">
+        <v>-0.01990973157158855</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04633275577746463</v>
+        <v>0.08191888343608519</v>
       </c>
       <c r="C69">
-        <v>-0.02582773133182916</v>
+        <v>-0.07463643084028078</v>
       </c>
       <c r="D69">
-        <v>0.05889261153330127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008936736437118339</v>
+      </c>
+      <c r="E69">
+        <v>-0.02399013825613524</v>
+      </c>
+      <c r="F69">
+        <v>0.03037428078273447</v>
+      </c>
+      <c r="G69">
+        <v>-0.09873173545781468</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1779909564675328</v>
+        <v>0.1445821792682963</v>
       </c>
       <c r="C71">
-        <v>-0.0501763649145946</v>
+        <v>0.2297172890433859</v>
       </c>
       <c r="D71">
-        <v>-0.1806589525854955</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.00328086020225897</v>
+      </c>
+      <c r="E71">
+        <v>0.03058795515111298</v>
+      </c>
+      <c r="F71">
+        <v>0.02711017901003003</v>
+      </c>
+      <c r="G71">
+        <v>-0.06507022319959911</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.04289297932189251</v>
+        <v>0.08678856497271714</v>
       </c>
       <c r="C72">
-        <v>-0.02706592274013079</v>
+        <v>-0.06942497106252031</v>
       </c>
       <c r="D72">
-        <v>0.0788631761860491</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008401791914365646</v>
+      </c>
+      <c r="E72">
+        <v>-0.005173199031853518</v>
+      </c>
+      <c r="F72">
+        <v>-0.03467311583391969</v>
+      </c>
+      <c r="G72">
+        <v>-0.09294524669777876</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3552380552361368</v>
+        <v>0.3709497052062531</v>
       </c>
       <c r="C73">
-        <v>-0.1152344874387407</v>
+        <v>-0.1223500456895485</v>
       </c>
       <c r="D73">
-        <v>0.2837952606653079</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02706859124263517</v>
+      </c>
+      <c r="E73">
+        <v>0.2120813400681675</v>
+      </c>
+      <c r="F73">
+        <v>-0.549128624123405</v>
+      </c>
+      <c r="G73">
+        <v>0.3102204858437217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0810541446670198</v>
+        <v>0.1043196113534777</v>
       </c>
       <c r="C74">
-        <v>-0.04217362751051024</v>
+        <v>-0.110181573593047</v>
       </c>
       <c r="D74">
-        <v>0.135320960348108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009339033792088967</v>
+      </c>
+      <c r="E74">
+        <v>-0.01416058784173797</v>
+      </c>
+      <c r="F74">
+        <v>0.06006674469246105</v>
+      </c>
+      <c r="G74">
+        <v>-0.07407120341955954</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.182711343180493</v>
+        <v>0.2466920841200927</v>
       </c>
       <c r="C75">
-        <v>-0.09008428389304649</v>
+        <v>-0.152118393401211</v>
       </c>
       <c r="D75">
-        <v>0.2109855170437151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03193094942111836</v>
+      </c>
+      <c r="E75">
+        <v>-0.09833525657674357</v>
+      </c>
+      <c r="F75">
+        <v>0.1483377347792676</v>
+      </c>
+      <c r="G75">
+        <v>0.01284075885189615</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.08238951954710125</v>
+        <v>0.1151805941445656</v>
       </c>
       <c r="C76">
-        <v>-0.04889144451208596</v>
+        <v>-0.111723312913935</v>
       </c>
       <c r="D76">
-        <v>0.1416341337416264</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01766883971168341</v>
+      </c>
+      <c r="E76">
+        <v>-0.04186257830610375</v>
+      </c>
+      <c r="F76">
+        <v>0.08664951820806092</v>
+      </c>
+      <c r="G76">
+        <v>-0.05565662872734775</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.03387762502365167</v>
+        <v>0.07147450903396793</v>
       </c>
       <c r="C77">
-        <v>-0.006076752434729228</v>
+        <v>-0.0565861929152417</v>
       </c>
       <c r="D77">
-        <v>0.07140609840171833</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01070184292032169</v>
+      </c>
+      <c r="E77">
+        <v>0.05302678818274607</v>
+      </c>
+      <c r="F77">
+        <v>0.00227167144422742</v>
+      </c>
+      <c r="G77">
+        <v>-0.07282983510958115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.02566577904332639</v>
+        <v>0.04163402535583238</v>
       </c>
       <c r="C78">
-        <v>-0.007781042432761079</v>
+        <v>-0.05284490508048365</v>
       </c>
       <c r="D78">
-        <v>0.06376382447304188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.00750928759731411</v>
+      </c>
+      <c r="E78">
+        <v>0.04150844238879613</v>
+      </c>
+      <c r="F78">
+        <v>-0.02970360192289869</v>
+      </c>
+      <c r="G78">
+        <v>-0.1036768441700635</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001066445995087179</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.000695538791083661</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.000474183721924006</v>
+      </c>
+      <c r="E79">
+        <v>0.005684468221865422</v>
+      </c>
+      <c r="F79">
+        <v>-1.846350364019168e-05</v>
+      </c>
+      <c r="G79">
+        <v>-0.003640925711596033</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04395808318817175</v>
+        <v>0.04195364886352301</v>
       </c>
       <c r="C80">
-        <v>-0.006651588332979334</v>
+        <v>-0.05228235876871345</v>
       </c>
       <c r="D80">
-        <v>0.07263505519912056</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01415316446119222</v>
+      </c>
+      <c r="E80">
+        <v>0.03213019164371346</v>
+      </c>
+      <c r="F80">
+        <v>0.0004897541433678673</v>
+      </c>
+      <c r="G80">
+        <v>-0.05022291645837363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.09200802615947264</v>
+        <v>0.1381234910322089</v>
       </c>
       <c r="C81">
-        <v>-0.04594771579996317</v>
+        <v>-0.0969166769857475</v>
       </c>
       <c r="D81">
-        <v>0.1200044067305186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01569856590808014</v>
+      </c>
+      <c r="E81">
+        <v>-0.05964164640446512</v>
+      </c>
+      <c r="F81">
+        <v>0.114421751265593</v>
+      </c>
+      <c r="G81">
+        <v>-0.02595755535925324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.01544323168539088</v>
+        <v>0.1478473955367316</v>
       </c>
       <c r="C82">
-        <v>-0.006190288342648828</v>
+        <v>-0.08699238322449457</v>
       </c>
       <c r="D82">
-        <v>0.017836561958554</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01318209391171635</v>
+      </c>
+      <c r="E82">
+        <v>-0.1282655704236917</v>
+      </c>
+      <c r="F82">
+        <v>0.04276579787135245</v>
+      </c>
+      <c r="G82">
+        <v>-0.05915077333898946</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01909335477599684</v>
+        <v>0.03379925464934182</v>
       </c>
       <c r="C83">
-        <v>-0.003272434910018557</v>
+        <v>-0.03190142364227367</v>
       </c>
       <c r="D83">
-        <v>0.0217552571511575</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006720580131620262</v>
+      </c>
+      <c r="E83">
+        <v>0.0339749998617001</v>
+      </c>
+      <c r="F83">
+        <v>-0.02988230029562175</v>
+      </c>
+      <c r="G83">
+        <v>-0.05868427240350883</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1815458382328309</v>
+        <v>0.2082668531334447</v>
       </c>
       <c r="C85">
-        <v>-0.07743526826356728</v>
+        <v>-0.1463016204161202</v>
       </c>
       <c r="D85">
-        <v>0.224197023899111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01752048288538458</v>
+      </c>
+      <c r="E85">
+        <v>-0.1135888716383239</v>
+      </c>
+      <c r="F85">
+        <v>0.08373164525440524</v>
+      </c>
+      <c r="G85">
+        <v>0.05108677304678907</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01219616681003645</v>
+        <v>0.01346916569827328</v>
       </c>
       <c r="C86">
-        <v>0.0009084905761126158</v>
+        <v>-0.02817878061267024</v>
       </c>
       <c r="D86">
-        <v>0.01890264838703453</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0128219921540504</v>
+      </c>
+      <c r="E86">
+        <v>0.06440447631961048</v>
+      </c>
+      <c r="F86">
+        <v>-0.02271222804377925</v>
+      </c>
+      <c r="G86">
+        <v>-0.1829194070973382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.005469234865928231</v>
+        <v>0.02143651382446753</v>
       </c>
       <c r="C87">
-        <v>0.009794807556777748</v>
+        <v>-0.01660284363211556</v>
       </c>
       <c r="D87">
-        <v>0.02469152001052839</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01319404372597686</v>
+      </c>
+      <c r="E87">
+        <v>0.1002566888579377</v>
+      </c>
+      <c r="F87">
+        <v>0.01678946122462402</v>
+      </c>
+      <c r="G87">
+        <v>-0.1224458866058733</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.06154646093623548</v>
+        <v>0.09161372230597749</v>
       </c>
       <c r="C88">
-        <v>0.000351460510782938</v>
+        <v>-0.07182131834523674</v>
       </c>
       <c r="D88">
-        <v>0.06330311459945812</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02235841371370478</v>
+      </c>
+      <c r="E88">
+        <v>-0.003725776797481946</v>
+      </c>
+      <c r="F88">
+        <v>0.0232508528854705</v>
+      </c>
+      <c r="G88">
+        <v>-0.09822041627016727</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3080024740841685</v>
+        <v>0.2344271817895637</v>
       </c>
       <c r="C89">
-        <v>-0.08134964305824179</v>
+        <v>0.3647041189060392</v>
       </c>
       <c r="D89">
-        <v>-0.3029526966778933</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0006153620923632012</v>
+      </c>
+      <c r="E89">
+        <v>-0.02652553532286634</v>
+      </c>
+      <c r="F89">
+        <v>0.01895662115272292</v>
+      </c>
+      <c r="G89">
+        <v>-0.07691704865971143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2620771820516649</v>
+        <v>0.2122520571439492</v>
       </c>
       <c r="C90">
-        <v>-0.07271655507645734</v>
+        <v>0.3152247392743671</v>
       </c>
       <c r="D90">
-        <v>-0.2645835654420151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.005227029974833554</v>
+      </c>
+      <c r="E90">
+        <v>-0.007264064398203312</v>
+      </c>
+      <c r="F90">
+        <v>0.04507390248154376</v>
+      </c>
+      <c r="G90">
+        <v>-0.0485523842203514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1429213992796199</v>
+        <v>0.1844992713682988</v>
       </c>
       <c r="C91">
-        <v>-0.07203189844532844</v>
+        <v>-0.1379245218749388</v>
       </c>
       <c r="D91">
-        <v>0.1545975762710917</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02291621492345315</v>
+      </c>
+      <c r="E91">
+        <v>-0.0830155709335625</v>
+      </c>
+      <c r="F91">
+        <v>0.1156223840788023</v>
+      </c>
+      <c r="G91">
+        <v>-0.03213033167773689</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2337410155863407</v>
+        <v>0.1992795474744747</v>
       </c>
       <c r="C92">
-        <v>-0.1009830091736649</v>
+        <v>0.2586321884565979</v>
       </c>
       <c r="D92">
-        <v>-0.2072824023930307</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.038967275138268</v>
+      </c>
+      <c r="E92">
+        <v>0.02159496208741492</v>
+      </c>
+      <c r="F92">
+        <v>0.05809716599036438</v>
+      </c>
+      <c r="G92">
+        <v>-0.09418281645376224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2819501563641806</v>
+        <v>0.2348116045752662</v>
       </c>
       <c r="C93">
-        <v>-0.08644903279617717</v>
+        <v>0.3095777913163025</v>
       </c>
       <c r="D93">
-        <v>-0.24032265821532</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01131756802367614</v>
+      </c>
+      <c r="E93">
+        <v>0.004064021838446528</v>
+      </c>
+      <c r="F93">
+        <v>0.03712598255733906</v>
+      </c>
+      <c r="G93">
+        <v>-0.06116328585469141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1984589470180854</v>
+        <v>0.3211048093874954</v>
       </c>
       <c r="C94">
-        <v>-0.07455892199908352</v>
+        <v>-0.1917256128070161</v>
       </c>
       <c r="D94">
-        <v>0.2262309286939624</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02494027927283492</v>
+      </c>
+      <c r="E94">
+        <v>-0.3330364912526807</v>
+      </c>
+      <c r="F94">
+        <v>0.4261257204843858</v>
+      </c>
+      <c r="G94">
+        <v>0.3901552070500318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.06017038198291354</v>
+        <v>0.09580743373248402</v>
       </c>
       <c r="C95">
-        <v>-0.03492424021659648</v>
+        <v>-0.08372297016563132</v>
       </c>
       <c r="D95">
-        <v>0.1477358617913646</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009174145603545968</v>
+      </c>
+      <c r="E95">
+        <v>0.1002727949352083</v>
+      </c>
+      <c r="F95">
+        <v>-0.1619589291302195</v>
+      </c>
+      <c r="G95">
+        <v>-0.002020029607195622</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.164605330496165</v>
+        <v>0.1895168036718559</v>
       </c>
       <c r="C98">
-        <v>-0.07678545132308351</v>
+        <v>-0.04769145275046095</v>
       </c>
       <c r="D98">
-        <v>0.09932928065083781</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01019097092873189</v>
+      </c>
+      <c r="E98">
+        <v>0.1250179610422522</v>
+      </c>
+      <c r="F98">
+        <v>-0.2138733939621745</v>
+      </c>
+      <c r="G98">
+        <v>0.0288094439667462</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007405024088215561</v>
+        <v>0.009321815905235726</v>
       </c>
       <c r="C101">
-        <v>0.003770895106223512</v>
+        <v>-0.0228436182864201</v>
       </c>
       <c r="D101">
-        <v>0.01610091489449121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009431382301075864</v>
+      </c>
+      <c r="E101">
+        <v>0.005302697463593296</v>
+      </c>
+      <c r="F101">
+        <v>0.01276928802211347</v>
+      </c>
+      <c r="G101">
+        <v>-0.1027933107713789</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.09648997550340604</v>
+        <v>0.1174961484918976</v>
       </c>
       <c r="C102">
-        <v>-0.03291835948962783</v>
+        <v>-0.08459525956964899</v>
       </c>
       <c r="D102">
-        <v>0.1119199467176198</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.000338493241362316</v>
+      </c>
+      <c r="E102">
+        <v>-0.04148704408952235</v>
+      </c>
+      <c r="F102">
+        <v>0.02595578275577306</v>
+      </c>
+      <c r="G102">
+        <v>-0.01565956782252039</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.3230458156394293</v>
+        <v>0.02124605452437728</v>
       </c>
       <c r="C104">
-        <v>0.9367596154626875</v>
+        <v>0.03093490814186868</v>
       </c>
       <c r="D104">
-        <v>0.02531481242436335</v>
+        <v>0.9870200555286693</v>
+      </c>
+      <c r="E104">
+        <v>-0.07101714298652363</v>
+      </c>
+      <c r="F104">
+        <v>0.02698382928647829</v>
+      </c>
+      <c r="G104">
+        <v>0.04015649945870299</v>
       </c>
     </row>
   </sheetData>
